--- a/natmiOut/YoungD4/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H2">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I2">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J2">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>1023.418026240909</v>
+        <v>1039.288735403475</v>
       </c>
       <c r="R2">
-        <v>1023.418026240909</v>
+        <v>9353.598618631275</v>
       </c>
       <c r="S2">
-        <v>0.131230568624781</v>
+        <v>0.1278727757374982</v>
       </c>
       <c r="T2">
-        <v>0.131230568624781</v>
+        <v>0.1278727757374982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H3">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I3">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J3">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>973.6791328871695</v>
+        <v>1008.251194838655</v>
       </c>
       <c r="R3">
-        <v>973.6791328871695</v>
+        <v>9074.260753547896</v>
       </c>
       <c r="S3">
-        <v>0.1248526633209691</v>
+        <v>0.1240539558764825</v>
       </c>
       <c r="T3">
-        <v>0.1248526633209691</v>
+        <v>0.1240539558764825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>276.117432205564</v>
+        <v>280.1474913333333</v>
       </c>
       <c r="H4">
-        <v>276.117432205564</v>
+        <v>840.4424739999999</v>
       </c>
       <c r="I4">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="J4">
-        <v>0.3026328878447841</v>
+        <v>0.298539071964842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N4">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q4">
-        <v>363.0233219410647</v>
+        <v>378.8427988525869</v>
       </c>
       <c r="R4">
-        <v>363.0233219410647</v>
+        <v>3409.585189673282</v>
       </c>
       <c r="S4">
-        <v>0.046549655899034</v>
+        <v>0.04661234035086127</v>
       </c>
       <c r="T4">
-        <v>0.046549655899034</v>
+        <v>0.04661234035086127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H5">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I5">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J5">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N5">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q5">
-        <v>503.6327775008144</v>
+        <v>504.6896300023997</v>
       </c>
       <c r="R5">
-        <v>503.6327775008144</v>
+        <v>4542.206670021598</v>
       </c>
       <c r="S5">
-        <v>0.06457968696552141</v>
+        <v>0.06209637579616744</v>
       </c>
       <c r="T5">
-        <v>0.06457968696552141</v>
+        <v>0.06209637579616745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H6">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I6">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J6">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N6">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q6">
-        <v>479.1558420089005</v>
+        <v>489.6174711977898</v>
       </c>
       <c r="R6">
-        <v>479.1558420089005</v>
+        <v>4406.557240780108</v>
       </c>
       <c r="S6">
-        <v>0.06144106513120184</v>
+        <v>0.06024191637882985</v>
       </c>
       <c r="T6">
-        <v>0.06144106513120184</v>
+        <v>0.06024191637882986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.879753661234</v>
+        <v>136.0425923333333</v>
       </c>
       <c r="H7">
-        <v>135.879753661234</v>
+        <v>408.127777</v>
       </c>
       <c r="I7">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="J7">
-        <v>0.1489282365175801</v>
+        <v>0.1449737389029841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N7">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q7">
-        <v>178.646886451962</v>
+        <v>183.9700801796512</v>
       </c>
       <c r="R7">
-        <v>178.646886451962</v>
+        <v>1655.730721616861</v>
       </c>
       <c r="S7">
-        <v>0.02290748442085682</v>
+        <v>0.02263544672798678</v>
       </c>
       <c r="T7">
-        <v>0.02290748442085682</v>
+        <v>0.02263544672798678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H8">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I8">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J8">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N8">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q8">
-        <v>726.9821136945534</v>
+        <v>767.689916037813</v>
       </c>
       <c r="R8">
-        <v>726.9821136945534</v>
+        <v>6909.209244340316</v>
       </c>
       <c r="S8">
-        <v>0.09321926496702537</v>
+        <v>0.09445559941658717</v>
       </c>
       <c r="T8">
-        <v>0.09321926496702537</v>
+        <v>0.09445559941658717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H9">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I9">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J9">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N9">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q9">
-        <v>691.6502308314527</v>
+        <v>744.763460570193</v>
       </c>
       <c r="R9">
-        <v>691.6502308314527</v>
+        <v>6702.871145131737</v>
       </c>
       <c r="S9">
-        <v>0.08868873789028478</v>
+        <v>0.09163475724001093</v>
       </c>
       <c r="T9">
-        <v>0.08868873789028478</v>
+        <v>0.09163475724001093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>196.139240609254</v>
+        <v>206.9361446666667</v>
       </c>
       <c r="H10">
-        <v>196.139240609254</v>
+        <v>620.808434</v>
       </c>
       <c r="I10">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="J10">
-        <v>0.2149744198731737</v>
+        <v>0.2205214270909241</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N10">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q10">
-        <v>257.8725947152798</v>
+        <v>279.8392655817291</v>
       </c>
       <c r="R10">
-        <v>257.8725947152798</v>
+        <v>2518.553390235562</v>
       </c>
       <c r="S10">
-        <v>0.03306641701586353</v>
+        <v>0.034431070434326</v>
       </c>
       <c r="T10">
-        <v>0.03306641701586353</v>
+        <v>0.034431070434326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H11">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I11">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J11">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N11">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q11">
-        <v>1094.34573621761</v>
+        <v>1133.885149787102</v>
       </c>
       <c r="R11">
-        <v>1094.34573621761</v>
+        <v>10204.96634808392</v>
       </c>
       <c r="S11">
-        <v>0.1403254677499064</v>
+        <v>0.1395117993023528</v>
       </c>
       <c r="T11">
-        <v>0.1403254677499064</v>
+        <v>0.1395117993023528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H12">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I12">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J12">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N12">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q12">
-        <v>1041.159702289931</v>
+        <v>1100.022561717482</v>
       </c>
       <c r="R12">
-        <v>1041.159702289931</v>
+        <v>9900.203055457338</v>
       </c>
       <c r="S12">
-        <v>0.1335055434411047</v>
+        <v>0.1353453891579796</v>
       </c>
       <c r="T12">
-        <v>0.1335055434411047</v>
+        <v>0.1353453891579796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>295.25367629042</v>
+        <v>305.6466113333333</v>
       </c>
       <c r="H13">
-        <v>295.25367629042</v>
+        <v>916.939834</v>
       </c>
       <c r="I13">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="J13">
-        <v>0.3236067784233086</v>
+        <v>0.325712199892882</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N13">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q13">
-        <v>388.1825552486802</v>
+        <v>413.3251993306402</v>
       </c>
       <c r="R13">
-        <v>388.1825552486802</v>
+        <v>3719.926793975762</v>
       </c>
       <c r="S13">
-        <v>0.04977576723229744</v>
+        <v>0.05085501143254956</v>
       </c>
       <c r="T13">
-        <v>0.04977576723229744</v>
+        <v>0.05085501143254956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H14">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I14">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J14">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N14">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q14">
-        <v>33.33585044126893</v>
+        <v>35.69519918589822</v>
       </c>
       <c r="R14">
-        <v>33.33585044126893</v>
+        <v>321.256792673084</v>
       </c>
       <c r="S14">
-        <v>0.004274580373639611</v>
+        <v>0.004391892305685072</v>
       </c>
       <c r="T14">
-        <v>0.004274580373639611</v>
+        <v>0.004391892305685073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H15">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I15">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J15">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N15">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q15">
-        <v>31.71570279149109</v>
+        <v>34.62919014051822</v>
       </c>
       <c r="R15">
-        <v>31.71570279149109</v>
+        <v>311.662711264664</v>
       </c>
       <c r="S15">
-        <v>0.004066832520968507</v>
+        <v>0.004260731896695263</v>
       </c>
       <c r="T15">
-        <v>0.004066832520968507</v>
+        <v>0.004260731896695264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.99398797775833</v>
+        <v>9.621888666666665</v>
       </c>
       <c r="H16">
-        <v>8.99398797775833</v>
+        <v>28.865666</v>
       </c>
       <c r="I16">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="J16">
-        <v>0.009857677341153491</v>
+        <v>0.01025356214836792</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N16">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q16">
-        <v>11.82477820072251</v>
+        <v>13.01165759285978</v>
       </c>
       <c r="R16">
-        <v>11.82477820072251</v>
+        <v>117.104918335738</v>
       </c>
       <c r="S16">
-        <v>0.001516264446545372</v>
+        <v>0.001600937945987585</v>
       </c>
       <c r="T16">
-        <v>0.001516264446545372</v>
+        <v>0.001600937945987585</v>
       </c>
     </row>
   </sheetData>
